--- a/task2/result.xlsx
+++ b/task2/result.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
   <si>
     <t xml:space="preserve">event_type</t>
   </si>
@@ -34,9 +34,6 @@
     <t xml:space="preserve">database: teste2</t>
   </si>
   <si>
-    <t xml:space="preserve">database: teste3</t>
-  </si>
-  <si>
     <t xml:space="preserve">database: teste4</t>
   </si>
 </sst>
@@ -47,11 +44,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -67,6 +65,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,7 +116,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -120,38 +125,48 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A25:B31"/>
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.08"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -228,143 +243,213 @@
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>4</v>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2"/>
+      <c r="A15" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A16" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>-42</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="B32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B33" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="n">
+      <c r="B42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B43" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B31" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="B44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="C37:C44"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
